--- a/data-excel/The-loai.xlsx
+++ b/data-excel/The-loai.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Tên</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>Tranh Chúa</t>
+  </si>
+  <si>
+    <t>Bếp và món ăn</t>
+  </si>
+  <si>
+    <t>bep</t>
   </si>
 </sst>
 </file>
@@ -463,7 +469,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -541,14 +547,14 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B13" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B14" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f t="shared" ref="D4:D13" si="1">"/the-loai/"&amp;E4</f>
+        <f t="shared" ref="D4:D14" si="1">"/the-loai/"&amp;E4</f>
         <v>/the-loai/phong-canh</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -737,8 +743,23 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/the-loai/bep</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:9">

--- a/data-excel/The-loai.xlsx
+++ b/data-excel/The-loai.xlsx
@@ -534,8 +534,8 @@
         <v>11</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f>"/the-loai/"&amp;E3</f>
-        <v>/the-loai/phat</v>
+        <f>"/tranh/"&amp;E3</f>
+        <v>/tranh/phat</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
@@ -554,8 +554,8 @@
         <v>12</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f t="shared" ref="D4:D14" si="1">"/the-loai/"&amp;E4</f>
-        <v>/the-loai/phong-canh</v>
+        <f t="shared" ref="D4:D14" si="1">"/tranh/"&amp;E4</f>
+        <v>/tranh/phong-canh</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
@@ -575,7 +575,7 @@
       </c>
       <c r="D5" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>/the-loai/me-va-be</v>
+        <v>/tranh/me-va-be</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>13</v>
@@ -595,7 +595,7 @@
       </c>
       <c r="D6" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>/the-loai/hoa</v>
+        <v>/tranh/hoa</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>15</v>
@@ -615,7 +615,7 @@
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>/the-loai/tinh-yeu</v>
+        <v>/tranh/tinh-yeu</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>17</v>
@@ -635,7 +635,7 @@
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>/the-loai/hoa-sen</v>
+        <v>/tranh/hoa-sen</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>19</v>
@@ -655,7 +655,7 @@
       </c>
       <c r="D9" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>/the-loai/nang-tho</v>
+        <v>/tranh/nang-tho</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>21</v>
@@ -675,7 +675,7 @@
       </c>
       <c r="D10" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>/the-loai/hoat-hinh</v>
+        <v>/tranh/hoat-hinh</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>23</v>
@@ -695,7 +695,7 @@
       </c>
       <c r="D11" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>/the-loai/dong-vat</v>
+        <v>/tranh/dong-vat</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>25</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="D12" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>/the-loai/cung-hoang-dao</v>
+        <v>/tranh/cung-hoang-dao</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>27</v>
@@ -735,7 +735,7 @@
       </c>
       <c r="D13" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>/the-loai/chua</v>
+        <v>/tranh/chua</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>29</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="D14" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>/the-loai/bep</v>
+        <v>/tranh/bep</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>32</v>
